--- a/tables/Room.xlsx
+++ b/tables/Room.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hide\Assets\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vsProjects\Serious\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,18 +27,6 @@
     <t>名字</t>
   </si>
   <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Icon</t>
-  </si>
-  <si>
     <t>入口大堂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -179,10 +167,6 @@
     <t>Abandoned Room</t>
   </si>
   <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>附加类型：0时间，1物品，2预兆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -200,6 +184,78 @@
   </si>
   <si>
     <t>0|1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nlishName</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ayer</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ype</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -207,7 +263,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +273,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -245,11 +309,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -539,7 +606,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -550,7 +617,7 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,59 +625,59 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" s="1">
         <v>2</v>
       </c>
@@ -618,15 +685,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -635,15 +702,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -652,15 +719,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -669,32 +736,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
@@ -703,15 +770,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -720,15 +787,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
@@ -737,15 +804,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -754,15 +821,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -771,15 +838,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
@@ -788,15 +855,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -805,15 +872,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -822,32 +889,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E17" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D18" s="1">
         <v>2</v>
@@ -856,49 +923,49 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
@@ -907,35 +974,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E22" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>

--- a/tables/Room.xlsx
+++ b/tables/Room.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
   <si>
     <t>序号</t>
   </si>
@@ -28,19 +28,19 @@
   </si>
   <si>
     <t>入口大堂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>英文名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>所属楼层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Entrance Hall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>上台阶</t>
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>墓园</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Graveyard</t>
@@ -90,7 +90,7 @@
   </si>
   <si>
     <t>Gallery</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>陵墓</t>
@@ -112,14 +112,14 @@
   </si>
   <si>
     <t>地窖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Crypt </t>
   </si>
   <si>
     <t>暖炉房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Furnace Room </t>
@@ -168,27 +168,27 @@
   </si>
   <si>
     <t>附加类型：0时间，1物品，2预兆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0|1|2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0|2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1|2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0|1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -205,7 +205,7 @@
       </rPr>
       <t>nlishName</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -222,7 +222,7 @@
       </rPr>
       <t>ayer</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -239,7 +239,7 @@
       </rPr>
       <t>d</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -256,18 +256,85 @@
       </rPr>
       <t>ype</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>canPassArray</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|1|1|1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|1|1|1</t>
+  </si>
+  <si>
+    <t>1|1|1|1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|1|1|1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -316,7 +383,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -602,22 +669,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.375" style="1" customWidth="1"/>
     <col min="2" max="3" width="13.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="4" max="5" width="17.625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -631,10 +698,13 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>54</v>
       </c>
@@ -648,10 +718,13 @@
         <v>53</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -664,11 +737,14 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -681,11 +757,14 @@
       <c r="D4" s="1">
         <v>2</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -698,11 +777,14 @@
       <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -715,11 +797,14 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -732,11 +817,14 @@
       <c r="D7" s="1">
         <v>0</v>
       </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -749,11 +837,14 @@
       <c r="D8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -766,11 +857,14 @@
       <c r="D9" s="1">
         <v>2</v>
       </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -783,11 +877,14 @@
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -800,11 +897,14 @@
       <c r="D11" s="1">
         <v>2</v>
       </c>
-      <c r="E11" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -817,11 +917,14 @@
       <c r="D12" s="1">
         <v>0</v>
       </c>
-      <c r="E12" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -834,11 +937,14 @@
       <c r="D13" s="1">
         <v>0</v>
       </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -851,11 +957,14 @@
       <c r="D14" s="1">
         <v>2</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -868,11 +977,14 @@
       <c r="D15" s="1">
         <v>0</v>
       </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -885,11 +997,14 @@
       <c r="D16" s="1">
         <v>0</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -902,11 +1017,14 @@
       <c r="D17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -919,11 +1037,14 @@
       <c r="D18" s="1">
         <v>2</v>
       </c>
-      <c r="E18" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -936,11 +1057,14 @@
       <c r="D19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -953,11 +1077,14 @@
       <c r="D20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -970,11 +1097,14 @@
       <c r="D21" s="1">
         <v>0</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -987,11 +1117,14 @@
       <c r="D22" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1004,12 +1137,15 @@
       <c r="D23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>

--- a/tables/Room.xlsx
+++ b/tables/Room.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="68">
   <si>
     <t>序号</t>
   </si>
@@ -316,6 +316,30 @@
       </rPr>
       <t/>
     </r>
+  </si>
+  <si>
+    <t>房间描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始房间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上入口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下入口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>叉叉叉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -669,22 +693,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="13.25" style="1" customWidth="1"/>
-    <col min="4" max="5" width="17.625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="2" max="4" width="13.25" style="1" customWidth="1"/>
+    <col min="5" max="6" width="17.625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -695,16 +719,19 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>54</v>
       </c>
@@ -715,16 +742,19 @@
         <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -734,17 +764,20 @@
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -754,17 +787,20 @@
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -774,17 +810,20 @@
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -794,17 +833,20 @@
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -814,17 +856,20 @@
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="D7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -834,17 +879,20 @@
       <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -854,17 +902,20 @@
       <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="1">
-        <v>2</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -874,17 +925,20 @@
       <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -894,17 +948,20 @@
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="1">
-        <v>2</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="D11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -914,17 +971,20 @@
       <c r="C12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="D12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -934,17 +994,20 @@
       <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="D13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -954,17 +1017,20 @@
       <c r="C14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="1">
-        <v>2</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="D14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -974,17 +1040,20 @@
       <c r="C15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="D15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -994,17 +1063,20 @@
       <c r="C16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="D16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1014,17 +1086,20 @@
       <c r="C17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1034,17 +1109,20 @@
       <c r="C18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="1">
-        <v>2</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="D18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1054,17 +1132,20 @@
       <c r="C19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1074,17 +1155,20 @@
       <c r="C20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G20" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1094,17 +1178,20 @@
       <c r="C21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="D21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1114,17 +1201,20 @@
       <c r="C22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F22" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1134,13 +1224,16 @@
       <c r="C23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F23" s="1">
+      <c r="G23" s="1">
         <v>0</v>
       </c>
     </row>

--- a/tables/Room.xlsx
+++ b/tables/Room.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="64">
   <si>
     <t>序号</t>
   </si>
@@ -27,19 +27,11 @@
     <t>名字</t>
   </si>
   <si>
-    <t>入口大堂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>英文名</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>所属楼层</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Entrance Hall</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -264,23 +256,6 @@
   </si>
   <si>
     <t>canPassArray</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|1|1|1</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -323,10 +298,6 @@
   </si>
   <si>
     <t>desc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始房间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -693,11 +664,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6:D23"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -716,42 +687,42 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -759,16 +730,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
+        <v>63</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>58</v>
@@ -782,19 +753,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -805,19 +776,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G5" s="1">
         <v>2</v>
@@ -828,19 +799,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
@@ -851,19 +822,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -874,19 +845,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -897,19 +868,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E9" s="1">
         <v>2</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -920,19 +891,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -943,19 +914,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G11" s="1">
         <v>2</v>
@@ -966,19 +937,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G12" s="1">
         <v>2</v>
@@ -989,19 +960,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -1012,19 +983,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E14" s="1">
         <v>2</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
@@ -1035,19 +1006,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -1058,19 +1029,19 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
@@ -1081,19 +1052,19 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G17" s="1">
         <v>2</v>
@@ -1104,19 +1075,19 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E18" s="1">
         <v>2</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G18" s="1">
         <v>2</v>
@@ -1127,19 +1098,19 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -1150,19 +1121,19 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
@@ -1173,19 +1144,19 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
@@ -1196,50 +1167,27 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G22" s="1">
         <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A1:XFD1048576">
+  <conditionalFormatting sqref="A24:XFD1048576 A1:XFD22">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>

--- a/tables/Room.xlsx
+++ b/tables/Room.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="66">
   <si>
     <t>序号</t>
   </si>
@@ -310,6 +310,14 @@
   </si>
   <si>
     <t>叉叉叉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>考验ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>examID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -664,11 +672,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
+      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -679,7 +687,7 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -701,8 +709,11 @@
       <c r="G1" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>52</v>
       </c>
@@ -724,8 +735,11 @@
       <c r="G2" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -747,8 +761,11 @@
       <c r="G3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -770,8 +787,11 @@
       <c r="G4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -793,8 +813,11 @@
       <c r="G5" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -816,8 +839,11 @@
       <c r="G6" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -839,8 +865,11 @@
       <c r="G7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -862,8 +891,11 @@
       <c r="G8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -885,8 +917,11 @@
       <c r="G9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -908,8 +943,11 @@
       <c r="G10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -931,8 +969,11 @@
       <c r="G11" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -954,8 +995,11 @@
       <c r="G12" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -977,8 +1021,11 @@
       <c r="G13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1000,8 +1047,11 @@
       <c r="G14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1023,8 +1073,11 @@
       <c r="G15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1046,8 +1099,11 @@
       <c r="G16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1069,8 +1125,11 @@
       <c r="G17" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1092,8 +1151,11 @@
       <c r="G18" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,8 +1177,11 @@
       <c r="G19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1138,8 +1203,11 @@
       <c r="G20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1161,8 +1229,11 @@
       <c r="G21" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1183,6 +1254,9 @@
       </c>
       <c r="G22" s="1">
         <v>2</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/tables/Room.xlsx
+++ b/tables/Room.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="68">
   <si>
     <t>序号</t>
   </si>
@@ -318,6 +318,14 @@
   </si>
   <si>
     <t>examID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行考验的条件：0在房间，开始行动前，1进入房间，2通过房间，3离开房间，4停留在房间结束，5无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mrtType</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -672,11 +680,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -687,7 +695,7 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -710,10 +718,13 @@
         <v>44</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>52</v>
       </c>
@@ -735,11 +746,14 @@
       <c r="G2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -762,10 +776,13 @@
         <v>0</v>
       </c>
       <c r="H3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -790,8 +807,11 @@
       <c r="H4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -814,10 +834,13 @@
         <v>2</v>
       </c>
       <c r="H5" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -842,8 +865,11 @@
       <c r="H6" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -866,10 +892,13 @@
         <v>0</v>
       </c>
       <c r="H7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -892,10 +921,13 @@
         <v>1</v>
       </c>
       <c r="H8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -917,11 +949,14 @@
       <c r="G9" s="1">
         <v>0</v>
       </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H9" s="2">
+        <v>4</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -944,10 +979,13 @@
         <v>1</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -970,10 +1008,13 @@
         <v>2</v>
       </c>
       <c r="H11" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -996,10 +1037,13 @@
         <v>2</v>
       </c>
       <c r="H12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1022,10 +1066,13 @@
         <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1048,10 +1095,13 @@
         <v>1</v>
       </c>
       <c r="H14" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1076,8 +1126,11 @@
       <c r="H15" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1100,10 +1153,13 @@
         <v>1</v>
       </c>
       <c r="H16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1126,10 +1182,13 @@
         <v>2</v>
       </c>
       <c r="H17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1154,8 +1213,11 @@
       <c r="H18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1178,10 +1240,13 @@
         <v>0</v>
       </c>
       <c r="H19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1204,10 +1269,13 @@
         <v>1</v>
       </c>
       <c r="H20" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1230,10 +1298,13 @@
         <v>1</v>
       </c>
       <c r="H21" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="I21" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1256,6 +1327,9 @@
         <v>2</v>
       </c>
       <c r="H22" s="1">
+        <v>5</v>
+      </c>
+      <c r="I22" s="1">
         <v>1</v>
       </c>
     </row>
